--- a/cypress/downloads/1тест_Фактические_операции.xlsx
+++ b/cypress/downloads/1тест_Фактические_операции.xlsx
@@ -72,463 +72,466 @@
     <x:t>Полезный комментарий</x:t>
   </x:si>
   <x:si>
+    <x:t>Направление 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бурение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Datexttext</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsahehello from autotesthello from autotest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Техническая колонна 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Удержание в клиньях</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122121xsadas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Операции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Конструкции скважин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Активация подвески  (потайной колонны, хвостовика)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кондуктор</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Активация подвески, опрессовка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кондуктор 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Бурение </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кондуктор 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бурение с отбором керна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кондуктор 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ВМР</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Кондуктор5 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вырезка окна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Направление</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Демонтаж ПВО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Направление  5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Долив затруба при подъёме</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Направление 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Закачка/прокачка пачки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Замер ЗТС (запись MWD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Направление 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Запись гамма-каратожа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пилотный ствол</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Комплекс ГИС на жестком кабеле</x:t>
+  </x:si>
+  <x:si>
     <x:t>Пилотный ствол 2</x:t>
   </x:si>
   <x:si>
+    <x:t>Комплекс ГИС на кабеле</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пилотный ствол 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Комплекс ГИС на трубах</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пилотный ствол 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Контролируемое ГНВП</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пилотный ствол 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ловильные работы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Техническая колонна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Монтаж ПВО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Монтаж, опрессовка ФА</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Техническая колонна 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наработка жёлоба</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Транспортный ствол</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наращивание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Транспортный ствол 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>НПВ / прочее</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Транспортный ствол 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обвязка устья с циркуляционной системой</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Транспортный ствол 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оборудование устья</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Транспортный ствол 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обработка БР</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обработка раствора (несоответствие параметров)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ожидание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ОЗЦ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Определение места прихвата и ЛМ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Опрессовка БИ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Опрессовка ОК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Опрессовка ПВО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ориентирование и посадка клина-отклонителя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ориентирование и установка стыковочного узла хвостовика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хвостовик 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ориентирование ТС при бурении</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эксплуатационная колонна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отворот допускной трубы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эксплуатационная колонна 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перезапись гаммы-каротажа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эксплуатационная колонна 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Перемонтаж ПВО </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эксплуатационная колонна 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перетяжка талевого каната</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эксплуатационная колонна 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПЗР к спуску УЭЦН</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПЗР при сборке КНБК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПЗР при спуске ОК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПЗР при цементировании</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Поглощение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовка ствола скважины. Перезапись ГК в интервале установки КО.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подъем БИ с выбросом на мостки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подъем инструмента</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подъем клина-отклонителя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подъем КНБК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>подъем ОК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подъем приборов ГИС  (на трубах)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Полная замена талевого каната</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПР перед забуркой направления</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приготовление БР</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продувка манифольда</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Промывка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Промывка - перевод скважины на новый раствор</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Промывка перед наращиванием</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Промывка при спуске ОК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проработка во время бурения</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Проработка </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проработка принудительная</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Протяжка подъемного патрубка подвески</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Работа пакером в обсадной колонне</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Работа яссом</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Разборка КНБК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Разборка комплекса приборов ГИС</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Разбуривание тех.оснастки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Расхаживание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Расширение ствола</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ревизия КНБК/инструмента/ЗТС</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ремонт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ремонт бурового оборудования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сальникообразование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка БИ с мостков на подсвечник</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка и спуск ТБТ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка клин-отклонителя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка КНБК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка комплекса приборов ГИС</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка устройства ориентирования КО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сборка хвостовика 114мм (согласно схеме)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смена рабочего переводника ВСП</x:t>
+  </x:si>
+  <x:si>
+    <x:t>СПО - колокол</x:t>
+  </x:si>
+  <x:si>
+    <x:t>СПО - метчик</x:t>
+  </x:si>
+  <x:si>
+    <x:t>СПО - овершот</x:t>
+  </x:si>
+  <x:si>
+    <x:t>СПО - труболовка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск БИ со сборкой с мостков</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск бурильного инструмента со сборкой с мостков</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск инструмента</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск инструмента с проработкой</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск КНБК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск КО на транспортной колонне</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск НКТ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск ОК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск пакера</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Спуск приборов ГИС (на трубах)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Срезка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Стыковка стингера с хвостовиком основного ствола</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тайм-дриллинг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тех.отстой</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТО оборудования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Торпедирование (встряхивание)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Торпедирование (отстрел)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Установка ванн</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Утяжеление БР</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Учебная тревога "Выброс"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Фрезеровка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цементирование</x:t>
+  </x:si>
+  <x:si>
     <x:t>Чистка ЦСГО/емкостного блока</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Da</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dsahe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Техническая колонна 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Удержание в клиньях</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122121xsadas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Операции</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Конструкции скважин</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Активация подвески  (потайной колонны, хвостовика)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кондуктор</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Активация подвески, опрессовка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кондуктор 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Бурение </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кондуктор 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Бурение с отбором керна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кондуктор 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ВМР</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Кондуктор5 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вырезка окна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Направление</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Демонтаж ПВО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Направление  5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Долив затруба при подъёме</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Направление 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Закачка/прокачка пачки</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Направление 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Замер ЗТС (запись MWD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Направление 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Запись гамма-каратожа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пилотный ствол</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Комплекс ГИС на жестком кабеле</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Комплекс ГИС на кабеле</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пилотный ствол 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Комплекс ГИС на трубах</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пилотный ствол 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Контролируемое ГНВП</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пилотный ствол 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ловильные работы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Техническая колонна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Монтаж ПВО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Монтаж, опрессовка ФА</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Техническая колонна 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наработка жёлоба</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Транспортный ствол</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наращивание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Транспортный ствол 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>НПВ / прочее</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Транспортный ствол 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Обвязка устья с циркуляционной системой</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Транспортный ствол 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Оборудование устья</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Транспортный ствол 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Обработка БР</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Обработка раствора (несоответствие параметров)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ожидание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ОЗЦ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Определение места прихвата и ЛМ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Опрессовка БИ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Опрессовка ОК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Опрессовка ПВО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ориентирование и посадка клина-отклонителя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ориентирование и установка стыковочного узла хвостовика</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Хвостовик 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ориентирование ТС при бурении</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эксплуатационная колонна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отворот допускной трубы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эксплуатационная колонна 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перезапись гаммы-каротажа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эксплуатационная колонна 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Перемонтаж ПВО </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эксплуатационная колонна 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перетяжка талевого каната</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Эксплуатационная колонна 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ПЗР к спуску УЭЦН</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ПЗР при сборке КНБК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ПЗР при спуске ОК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ПЗР при цементировании</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Поглощение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подготовка ствола скважины. Перезапись ГК в интервале установки КО.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подъем БИ с выбросом на мостки</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подъем инструмента</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подъем клина-отклонителя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подъем КНБК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>подъем ОК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подъем приборов ГИС  (на трубах)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Полная замена талевого каната</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ПР перед забуркой направления</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Приготовление БР</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Продувка манифольда</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Промывка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Промывка - перевод скважины на новый раствор</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Промывка перед наращиванием</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Промывка при спуске ОК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проработка во время бурения</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Проработка </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Проработка принудительная</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Протяжка подъемного патрубка подвески</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Работа пакером в обсадной колонне</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Работа яссом</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Разборка КНБК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Разборка комплекса приборов ГИС</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Разбуривание тех.оснастки</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Расхаживание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Расширение ствола</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ревизия КНБК/инструмента/ЗТС</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ремонт</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ремонт бурового оборудования</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сальникообразование</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка БИ с мостков на подсвечник</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка и спуск ТБТ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка клин-отклонителя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка КНБК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка комплекса приборов ГИС</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка устройства ориентирования КО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сборка хвостовика 114мм (согласно схеме)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Смена рабочего переводника ВСП</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СПО - колокол</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СПО - метчик</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СПО - овершот</x:t>
-  </x:si>
-  <x:si>
-    <x:t>СПО - труболовка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск БИ со сборкой с мостков</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск бурильного инструмента со сборкой с мостков</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск инструмента</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск инструмента с проработкой</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск КНБК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск КО на транспортной колонне</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск НКТ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск ОК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск пакера</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Спуск приборов ГИС (на трубах)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Срезка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Стыковка стингера с хвостовиком основного ствола</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тайм-дриллинг</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тех.отстой</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ТО оборудования</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Торпедирование (встряхивание)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Торпедирование (отстрел)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Установка ванн</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Утяжеление БР</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Учебная тревога "Выброс"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Фрезеровка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Цементирование</x:t>
   </x:si>
   <x:si>
     <x:t>Шаблонирование перед спуском</x:t>
@@ -1277,16 +1280,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="9">
-        <x:v>12</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E2" s="10">
-        <x:v>222</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="F2" s="19">
         <x:v>45489</x:v>
       </x:c>
       <x:c r="G2" s="10">
-        <x:v>0.416666666666667</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2" s="9" t="s">
         <x:v>11</x:v>
@@ -11447,31 +11450,31 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s">
-        <x:v>35</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="C11" s="13" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="C12" s="13" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="C13" s="13" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1022" ht="13.8" customHeight="1">
@@ -12034,32 +12037,32 @@
     </x:row>
     <x:row r="110" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A110" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A111" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A112" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A113" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A114" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:1022" ht="13.8" customHeight="1">
       <x:c r="A115" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:1022" ht="13.8" customHeight="1"/>
